--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="20210822" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="20210905" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -1151,6 +1152,839 @@
   </si>
   <si>
     <t xml:space="preserve">huí tóu jiàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i’m late</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 很抱歉，我来晚了。真不好意思让你等我。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">terribly sorry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i’m late. Really </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to have kept you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">waiting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bào qiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ lái wǎn le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">zhēn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">bú hǎo yì sī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ràng nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">děng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 真没关系，你怎么会这么晚呢？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: That’s quit alright. What made you so late.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhēn méi guān xì ，nǐ zěn me huì zhè me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǎn ne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我正要出门的时候找不到门钥匙了。我记得</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Well, when I was leaving. I just couldn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to the door.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">我把他放在桌子上了，可是就是找不到。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I remembered that I put it on a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, but I just couldn’t find it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ zhèng yào chū mén de shí hòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bú dào mén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yào shí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jì dé wǒ bǎ tā fàng zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">zhuō zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> shàng le ，kě shì jiù shì zhǎo bú dào 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 后来找到了吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Did you find it at last?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hòu lái zhǎo dào le ma ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 没有，我的妻子正好回来了，我就赶紧出来了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  No, my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> just came back and I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">rushed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">out of the door.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">méi yǒu ，wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qī zǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhèng hǎo huí lái le ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jiù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">gǎn jǐn chū lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">le 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 对我俩来说都很幸运，要不然我现在还在等着呢。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: it’s so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fortunate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for both of you and me. Otherwise, I would still be waiting.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">duì wǒ liǎ lái shuō dōu hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xìng yùn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">yào bú rán wǒ xiàn zài hái zài děng zhe ne 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 是呀，更糟糕的是，我乘坐的那辆车半路上坏了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Definitely, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">To make it worse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, the bus I took broke down </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">halfway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shì ya ，gèng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zāo gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de shì ，wǒ chéng zuò de </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">nà liàng chē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">bàn lù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> shàng huài le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: 那你怎么来的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">了一辆车吗？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  How did you come here? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to another bus?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nà nǐ zěn me lái de ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">huàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le yī liàng chē ma ？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:没有，我打车来的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">要不然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">还在路上呢。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: No. I got the taxi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Otherwise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, i’d still be on the way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">méi yǒu ，wǒ dǎ chē lái de ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yào bú rán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hái zài lù shàng ne 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you move aside, I want to get past. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">请让一让</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qing rang yi rang</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1287,12 +2121,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFEF413D"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="1"/>
@@ -1377,11 +2250,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1407,7 +2280,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF62A73B"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1464,7 +2337,7 @@
   </sheetPr>
   <dimension ref="C2:AD34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U15" activeCellId="0" sqref="U15"/>
     </sheetView>
   </sheetViews>
@@ -1723,8 +2596,8 @@
   </sheetPr>
   <dimension ref="C2:AA33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1774,7 +2647,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1787,7 +2660,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="AA11" s="1" t="s">
@@ -1924,6 +2797,226 @@
         <v>90</v>
       </c>
     </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AA1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V25" activeCellId="0" sqref="V25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="W4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="W7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="W14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="W26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="W29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="20210822" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="20210905" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="20210912" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -1263,6 +1264,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">zhēn </t>
     </r>
@@ -1272,6 +1274,7 @@
         <color rgb="FFCE181E"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">bú hǎo yì sī </t>
     </r>
@@ -1280,6 +1283,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ràng nǐ </t>
     </r>
@@ -1289,6 +1293,7 @@
         <color rgb="FF62A73B"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">děng</t>
     </r>
@@ -1297,6 +1302,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> wǒ 。</t>
     </r>
@@ -1479,6 +1485,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">wǒ jì dé wǒ bǎ tā fàng zài </t>
     </r>
@@ -1488,6 +1495,7 @@
         <color rgb="FFCE181E"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">zhuō zǐ</t>
     </r>
@@ -1496,6 +1504,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> shàng le ，kě shì jiù shì zhǎo bú dào 。</t>
     </r>
@@ -1600,6 +1609,7 @@
         <color rgb="FF1C1C1C"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">wǒ jiù </t>
     </r>
@@ -1609,6 +1619,7 @@
         <color rgb="FF62A73B"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">gǎn jǐn chū lái </t>
     </r>
@@ -1618,6 +1629,7 @@
         <color rgb="FF1C1C1C"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">le 。</t>
     </r>
@@ -1776,6 +1788,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">nà liàng chē </t>
     </r>
@@ -1785,6 +1798,7 @@
         <color rgb="FF62A73B"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">bàn lù</t>
     </r>
@@ -1793,6 +1807,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> shàng huài le 。</t>
     </r>
@@ -1985,6 +2000,683 @@
   </si>
   <si>
     <t xml:space="preserve">qing rang yi rang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On and Off Duty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 早上好，保罗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Good morning, Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zǎo shàng hǎo ，bǎo luó</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: 早上好，你今天怎么这么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">早</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Hi, good morning, you are so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">early</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> today.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zǎo shàng hǎo ，nǐ jīn tiān zěn me zhè me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 是啊，今天的交通状况不错，所以我可以</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Yes, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Traffic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wasn’t much today. So I made it to the office </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">早点来公司。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earlier.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shì ā ，jīn tiān de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jiāo tōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhuàng kuàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bú cuò ，suǒ yǐ wǒ kě yǐ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">zǎo diǎn lái gōng sī 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 原来如此，你每天到公司要花多长时间。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> I see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. How long does it take you to reach the office everyday?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yuán lái rú cǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ měi tiān dào gōng sī yào huā duō chang shí jiān 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 嗯，大约一个小时左右。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: Well, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> an hour or so.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">èn ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dà yuē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī gè xiǎo shí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zuǒ yòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 很长的路程，你开车吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: That’s quite a long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">journey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, Do you drive a car?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hěn chang de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lù chéng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ kāi chē ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 不，我乘坐公共交通工具，这比较安全。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: No, I take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">public transportation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. it’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">safer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bú ，wǒ chéng zuò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">gōng gòng jiāo tōng gōng jù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">zhè bǐ jiào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ān quán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 你说的对，但是我起床比较晚，那让我</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: You’re right. But I get up a little </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">late</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">别无选择，只能骑摩托车。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">That gives me no other option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> but to travel by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">motorcycle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ shuō de duì ，dàn shì wǒ qǐ chuáng bǐ jiào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，nà ràng wǒ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bié wú xuǎn zé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhī néng qí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mó tuō chē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spend  money/time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garish</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2135,23 +2827,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF62A73B"/>
       <name val="等线"/>
       <family val="3"/>
@@ -2159,16 +2834,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF72BF44"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF006C3B"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2213,7 +2914,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2250,7 +2951,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2278,7 +2983,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006C3B"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF62A73B"/>
       <rgbColor rgb="FF800080"/>
@@ -2311,7 +3016,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFEF413D"/>
@@ -2815,7 +3520,7 @@
   </sheetPr>
   <dimension ref="C2:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V25" activeCellId="0" sqref="V25"/>
     </sheetView>
   </sheetViews>
@@ -2851,7 +3556,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2891,7 +3596,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="W13" s="3"/>
@@ -2925,7 +3630,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>111</v>
       </c>
       <c r="W19" s="3"/>
@@ -2944,7 +3649,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2962,7 +3667,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3010,6 +3715,229 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AB1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y20" activeCellId="0" sqref="Y20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="AA4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="AA7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="AA14" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R16" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="6"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="AA26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="20210822" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="20210905" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="20210912" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="20210919" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="220">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -2494,6 +2495,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">zhè bǐ jiào </t>
     </r>
@@ -2503,6 +2505,7 @@
         <color rgb="FF006C3B"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ān quán</t>
     </r>
@@ -2511,6 +2514,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 。</t>
     </r>
@@ -2677,6 +2681,871 @@
   </si>
   <si>
     <t xml:space="preserve">garish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entering the Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 抱歉，您不能把包带进商场里。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Excuse me, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Bags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> aren’t permitted inside the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">supermarket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: bào qiàn ，nín bú néng bǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dài jìn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shāng chǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lǐ 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 奥，不好意思。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Oh, i’m sorry?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ào ，bú hǎo yì sī</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 没关系的，进去的时候存一下包就好了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Don’t worry.Just </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">check in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> your bag before entering.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">méi guān xì de ，jìn qù de shí hòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">cún</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià bāo jiù hǎo le 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 谢谢，请问在什么地方存包？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Thanks, Could you tell me where I should deposit my bag?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiè xiè ，qǐng wèn zài shen me dì fāng cún bāo ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:寄存处就在前门后面。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">check room</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is just behind the front door.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jì cún chù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jiù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zài qián mén hòu miàn </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 好的，我马上去存包。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Okay. I will deposit my bag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">right now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo de ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mǎ shàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> qù cún bāo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 可以去买东西了吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: are you ready to go </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shopping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kě yǐ qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mǎi dōng xī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 等一会儿，我先列一个购物清单。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: just a few minutes. I need to make a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">list of things</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">děng yī huì ér ，wǒ xiān liè yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">gòu wù qīng dān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">that we need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 好主意，你写茶叶，鸡蛋和土豆了吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Good idea. Have you written down tea, eggs and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">potatoes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo zhǔ yì ，nǐ xiě chá yè ，jī dàn hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tǔ dòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 忘记写土豆了。欧，我差点忘记了，我们急需</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">forgot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> about the potatoes. Oh, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">almost forget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">一个微波炉，对了，我们买什么茶叶？绿茶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">we need a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">microwave oven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> . What kind of tea do you prefer?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">花茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Green tea or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> flower tea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wàng jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xiě tǔ dòu le 。ōu ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chà diǎn wàng jì le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ men jí xū</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">yī gè wēi bō lú ，duì le ，wǒ men mǎi shen me chá yè ？lǜ chá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hái shì huā chá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 两种都买一点吧。钱带够了吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: let’s just get both. Do you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bring enough money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">liǎng zhǒng dōu mǎi yī diǎn ba 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qián dài gòu le ma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B:现金不是很多，不过我会带着信用卡的。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: We don’t have enough </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, But I’ll take my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">credit card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xiàn jīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bú shì hěn duō ，bú guò wǒ huì dài zhe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xìn yòng kǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身份证 IDCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shen fen zheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bo</t>
   </si>
 </sst>
 </file>
@@ -2862,14 +3731,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006C3B"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
+      <color rgb="FF72BF44"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2914,7 +3786,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2952,10 +3824,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3301,7 +4169,7 @@
   </sheetPr>
   <dimension ref="C2:AA33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3740,7 +4608,7 @@
   </sheetPr>
   <dimension ref="C2:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y20" activeCellId="0" sqref="Y20"/>
     </sheetView>
   </sheetViews>
@@ -3888,7 +4756,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3905,7 +4773,7 @@
       <c r="D27" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AA27" s="11" t="s">
+      <c r="AA27" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3915,7 +4783,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3954,4 +4822,297 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AA1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI31" activeCellId="0" sqref="AI31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="T4" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="T7" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2"/>
+      <c r="L12" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="T13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9"/>
+      <c r="J15" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="T19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="T26" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="T29" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="20210905" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="20210912" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="20210919" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="20211010" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="262">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -3546,6 +3547,730 @@
   </si>
   <si>
     <t xml:space="preserve">bo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Jone, 你小时候有过什么梦想吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Jone，did you have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when you was </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Jone, nǐ xiǎo shí hòu yǒu guò shen me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mèng xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a little boy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 当然有了，我梦想长大后做一名飞行员，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Of course, I did. I dreamed to be a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">pilot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when I grow up.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">不过遗憾的是，我没有实现儿时的梦想。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">But </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">unfortunately</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, I didn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">realize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dāng rán yǒu le ，wǒ mèng xiǎng zhǎng dà hòu zuò yī míng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fēi xing yuán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bú guò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yí hàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de shì ，wǒ méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shí xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ér shí de mèng xiǎng 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 我也是如此，我小时候的梦想是做一名伟大的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I had the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">same experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with you. When I was a little boy.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">科学家，但是现在只是普通的办公职员。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I Dreamed to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a great</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">scientist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. But now you see, i’m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">just a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">common</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> office clerk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ yě shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rú cǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ xiǎo shí hòu de mèng xiǎng shì zuò yī míng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wěi dà de </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kē xué jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，dàn shì xiàn zài zhī shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">pǔ tōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de bàn gōng zhí yuán 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 好了，忘记这些吧，对了，Steven，你目前有</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: OK, forget about that. Steven, do you have some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">practical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dreams </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">什么实际的梦想吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">at present</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo le ，wàng jì zhè xiē ba ，duì le ，Steven，nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mù qián</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shen me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shí jì de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mèng xiǎng ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 有，我正在努力学习英文，我想成为一名翻译。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I do. Now i’m working hard to learn English, and I want to be an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">interpreter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> someday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yǒu ，wǒ zhèng zài nǔ lì xué xí yīng wén ，wǒ xiǎng chéng wéi yī míng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fān yì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 嗯，你是大有前途的。追逐你的梦想，永不放弃。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: you’re promising, Just follow your dreams and never give up.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">èn ，nǐ shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dà yǒu qián tú de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhuī zhú nǐ de mèng xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yǒng bú fàng qì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不孝有三，无后为大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are three kinds of unfilial, no offspring is great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">做梦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zuo meng  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白日做梦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bai ri zuo meng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indulge in wishful thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhi yuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee</t>
   </si>
 </sst>
 </file>
@@ -3555,7 +4280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3743,6 +4468,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3786,7 +4518,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3828,6 +4560,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3893,7 +4633,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF579835"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF4C4C4C"/>
       <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -4831,7 +5571,7 @@
   </sheetPr>
   <dimension ref="C2:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AI31" activeCellId="0" sqref="AI31"/>
     </sheetView>
   </sheetViews>
@@ -5115,4 +5855,235 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AB1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="V4" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="V7" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="2"/>
+      <c r="W13" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="W14" s="0"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="V16" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="V20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="11"/>
+      <c r="F22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="V23" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="20210912" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="20210919" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="20211010" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="20211024" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="300">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -4271,6 +4272,611 @@
   </si>
   <si>
     <t xml:space="preserve">employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Steven, 为什么这么沮丧。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Steven，Why are you so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">depressed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steven, wéi shen me zhè me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jǔ sàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 刚刚看了新闻，我觉得很伤心。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: i’m feeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">very bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. I just watched the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">news</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">gāng gāng kàn le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xīn wén </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，wǒ jue dé hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shāng xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 什么新闻。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: What’s the news?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shen me xīn wén</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 地震把一个城镇夷为平地，有一万多人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">town</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF58220"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">razed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">earthquake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">在这次地震中死亡。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more then ten thousand people died in the</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dì zhèn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bǎ yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chéng zhèn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF58220"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yí wéi píng dì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">earthquake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yǒu yī wàn duō rén zài zhè cì dì zhèn zhōng sǐ wáng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 太恐怖了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: it’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">horrible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kǒng bù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 是啊，我们应该帮助这些灾区的人们。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:  Yeah, we have to do something to help the people</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">struck area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shì ā ，wǒ men yīng gāi bāng zhù zhè xiē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zāi qū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de rén men 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">shou zai de qu yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 没错，我们去捐款，怎么样？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: How about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">donating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> some money?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">méi cuò ，wǒ men qù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> juān kuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zěn me yàng ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 是个好主意，可是我们去哪里捐款呢？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:  it’s a good idea. But where can we donate money?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shì gè hǎo zhǔ yì ，kě shì wǒ men qù nǎ lǐ juān kuǎn ne ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 在网上查一下。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Just find the answer through the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">internet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǎng shàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chá yī xià 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 对啊，咱们现在就做。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Yes. Let’s do it now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duì ā ，zán men xiàn zài jiù zuò 。</t>
   </si>
 </sst>
 </file>
@@ -4280,7 +4886,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4475,6 +5081,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF58220"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4518,7 +5143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4568,6 +5193,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4626,7 +5263,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FFEF413D"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -5864,7 +6501,7 @@
   </sheetPr>
   <dimension ref="C2:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
     </sheetView>
   </sheetViews>
@@ -6086,4 +6723,226 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AB34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="T4" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="T7" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="T13" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="W14" s="0"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="T20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="6"/>
+      <c r="U21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="U22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="0"/>
+      <c r="Q23" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="T24" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="20210919" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="20211010" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="20211024" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="20211030" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="364">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -4729,9 +4730,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">shou zai de qu yu</t>
   </si>
   <si>
@@ -4877,6 +4875,731 @@
   </si>
   <si>
     <t xml:space="preserve">duì ā ，zán men xiàn zài jiù zuò 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry-cleaned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 你要洗衣服吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Can I help you?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xǐ yī fú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 是的，我想把这件衬衫干洗一下。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Yes, i’d like this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shirt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to be dry-cleaned.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shì de ，wǒ xiǎng bǎ zhè jiàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">chèn shān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gan xǐ yī xià 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">T-shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 好的，你想什么时候取衣服。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Sure, when do you want to get it back?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo de ，nǐ xiǎng shen me shí hòu qǔ yī fú 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我下午要穿，你们这里能不能提供加急服务？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  I have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it this afternoon. Do you have an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> urgent service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xià wǔ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">chuān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ men zhè lǐ néng bú néng tí gòng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jiā jí fú wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 有，但是要加收50%的费用，三个小时就洗好了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Yes, but we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">charge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 50% more and it only takes three hours.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yǒu ，dàn shì yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jiā shōu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 50%de fèi yòng ，sān gè xiǎo shí jiù xǐ hǎo le </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bai fen zhi 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:好的，多少钱？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Okay. How much should I pay?&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo de ，duō shǎo qián ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 30美元。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Thirty dollars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30měi yuán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 亲爱的， 我觉得你要戒烟了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Honey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, I think you should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">quit smoking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qīn ài de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ， wǒ jue dé nǐ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jiè yān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 为什么？你以前不是说我抽烟的时候很性感吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Why? You said I was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when smoking.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wéi shen me ？nǐ yǐ qián bú shì shuō wǒ chōu yān de shí hòu hěn xìng gǎn ma ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the past time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 但是我更喜欢你健康。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: But I want you to be fit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dàn shì wǒ gèng xǐ huān nǐ jiàn kāng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我知道吸烟有害健康。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I know, Smoking is harmful to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ zhī dào xī yān yǒu hài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jiàn kāng</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 你看看这文章，上面说吸烟会导致肺癌。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Check out this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. It says smoking can lead to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lung cancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ kàn kàn zhè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wén zhāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，shàng miàn shuō xī yān huì dǎo zhì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fèi ái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我才不信呢。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: I don’t believe it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ cái bú xìn ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 别拐弯抹角了，你到底戒不戒烟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Stop beating around the Bush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. Will you quit or not?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bié </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">guǎi wān mò jiǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ，nǐ dào dǐ jiè bú jiè yān </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">turn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洗手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xi shou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wash hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取钱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qu qian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get my money back from bank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chuang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni bu shi shuo guo ai wo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni shuo guo ai wo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hao kai xin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hao bu kai xin</t>
   </si>
 </sst>
 </file>
@@ -4886,7 +5609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5088,18 +5811,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5143,7 +5854,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5193,18 +5904,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6732,7 +7431,7 @@
   </sheetPr>
   <dimension ref="C2:AB34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -6780,7 +7479,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6828,7 +7527,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="4" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6875,65 +7574,402 @@
       <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="15" t="s">
-        <v>286</v>
-      </c>
+      <c r="D23" s="11"/>
       <c r="F23" s="0"/>
       <c r="Q23" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D24" s="2"/>
       <c r="T24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AB56"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S46" activeCellId="0" sqref="S46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="U4" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="U7" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="U13" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="W14" s="0"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="U16" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7"/>
+      <c r="M18" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="U19" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="6"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="20211010" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="20211024" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="20211030" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="20211107" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="414">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -5600,6 +5601,671 @@
   </si>
   <si>
     <t xml:space="preserve">hao bu kai xin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gossip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 我听到一些你的八卦，Eve.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I have heard a lot of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">gossips</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> about you,Eve.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ tīng dào yī xiē nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bā guà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，Eve.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 真的？什么八卦？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Really? What gossip?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhēn de ？shen me bā guà </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 你真的想知道？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: You really want to know?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ zhēn de xiǎng zhī dào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 有何不可？知道别人在你背后说你什么不是</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Why not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">? it’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">interesting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to know what people</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">很好玩嘛？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">say behind my back, isn’t it?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yǒu hé bú kě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">？zhī dào bié rén zài nǐ bèi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hòu shuō nǐ shen me bú shì hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hǎo wán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 好。 他们说你和 Cindy的未婚夫约会哦。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A; Alright, They said that you’re going out with Cindy’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fiance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo 。 tā men shuō nǐ hé  Cindyde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wèi hūn fū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yuē huì ò</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 你不会信以为真吧？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Oh, you don’t believe that, do you?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ bú huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xìn yǐ wéi zhēn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ba</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 我不会，所以我才来这儿，我想听听你对这个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: I don’t, and that’s why I came here. i’d like to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">事情怎么解释。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">know what you have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">say about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">this.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ bú huì ，suǒ yǐ wǒ cái lái zhè ér ，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ xiǎng tīng tīng nǐ duì zhè gè</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shì qíng zěn me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jiě shì</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我没有什么好说的，我绝对不会做出这种事的。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Nothing. i’d never ever do such a thing. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Believe it or not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">信不信由你。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ méi yǒu shen me hǎo shuō de ，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ jué duì bú huì zuò chū zhè zhǒng shì de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xìn bú xìn yóu nǐ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 我相信你Eve，你听我说，我不是来指控你的，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I believe you. Eve. Listen. l’m not to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">accuse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you , But you</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">但是你要记住，谣言不会空穴来风的。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B274"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">keep it in mind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">rumors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> don’t come from nowhere.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xiàng xìn nǐ Eve，nǐ tīng wǒ shuō ，wǒ bú shì lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhǐ kòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dàn shì nǐ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B274"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jì zhù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yáo yán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bú huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kōng xué lái fēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我懂你的意思，我会和Cindy的未婚夫保持距离</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I know what you mean. i’ll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">keep away</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from Cindy’s fiance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ dǒng nǐ de yì sī ，wǒ huì hé Cindyde wèi hūn fū </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bǎo chí jù lí</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 很好，我就知道你会听的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Good. I knew you would listen to reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hěn hǎo ，wǒ jiù zhī dào nǐ huì tīng de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">有趣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you qu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interesting.</t>
   </si>
 </sst>
 </file>
@@ -5609,7 +6275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5811,6 +6477,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF407927"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF407927"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B274"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5929,11 +6616,11 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF006C3B"/>
       <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF407927"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF00B274"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF62A73B"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -7651,8 +8338,8 @@
   </sheetPr>
   <dimension ref="C2:AB56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S46" activeCellId="0" sqref="S46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X51" activeCellId="0" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7981,4 +8668,282 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AO44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="V4" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="V7" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="V13" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="V20" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2"/>
+      <c r="U22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="V23" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="V28" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN29" s="0"/>
+      <c r="AO29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="20211024" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="20211030" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="20211107" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="20211114" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="456">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -6266,6 +6267,415 @@
   </si>
   <si>
     <t xml:space="preserve">interesting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down in spirits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Tommy, 你的情绪好像很低，怎么了？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Tommy, Why are you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">so depressed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tommy, nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">qíng xù hǎo xiàng hěn dī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，zěn me le</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 没什么，就是觉得有点儿累。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:  oh, nothing, i’m just tried.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">méi shen me ，jiù shì jue dé yǒu diǎn ér lèi 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Tommy，你有什么事情可以和我说。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Come on tommy. You can tell me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy，nǐ yǒu shen me shì qíng  kě yǐ hé wǒ shuō </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 老板给了我特别多的活， 昨天晚上我又干</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: The boss gave me such </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a lot of work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to do.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">到了十点，问题是到现在还没做完呢。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I working until 10 o’clock yesterday. And</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lǎo bǎn gěi le wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tè bié duō de huó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ， </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">it has not been finished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zuó tiān wǎn shàng wǒ yòu gàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dào le shí diǎn ，wèn tí shì dào xiàn zài hái méi zuò wán ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 你为什么不和你的老板谈谈呢？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Why don’t you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">talk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to you boss?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ wéi shen me bú hé nǐ de lǎo bǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tán tán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ne ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我跟他谈了，可他说找不着别人来帮我。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: I have talked to him, but he just said he couldn’t find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我对他很生气。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">another person to help me. i’m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">really angry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with him.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ gēn tā tán le ，kě tā shuō zhǎo bú zhao bié rén lái bāng wǒ </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ duì tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hěn shēng qì</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 放松点，我相信你的老板知道你工作得多辛苦。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Just relax. I think you boss understands </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">how hard you’re working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fàng sōng diǎn ，wǒ xiàng xìn nǐ de lǎo bǎn </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">zhī dào nǐ gōng zuò dé duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">xīn kǔ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 但愿如此</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I hope so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dàn yuàn rú cǐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">干活</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gan huo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">说话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shuo hua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谈话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tan hua</t>
   </si>
 </sst>
 </file>
@@ -6275,7 +6685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6498,6 +6908,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6541,7 +6963,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6591,6 +7013,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6925,6 +7351,252 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AO36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="U4" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="U7" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="U13" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="W14" s="0"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="U19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="U22" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="2"/>
+      <c r="D24" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="U24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="U26" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="U29" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN31" s="0"/>
+      <c r="AO31" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -8677,7 +9349,7 @@
   </sheetPr>
   <dimension ref="C2:AO44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="20211030" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="20211107" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="20211114" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="20211121" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="513">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -6604,6 +6605,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">zhī dào nǐ gōng zuò dé duō </t>
     </r>
@@ -6613,6 +6615,7 @@
         <color rgb="FFCE181E"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">xīn kǔ</t>
     </r>
@@ -6676,6 +6679,852 @@
   </si>
   <si>
     <t xml:space="preserve">tan hua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 打扰了，护士。医生对我的病情说了什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Excuse me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. Miss, what does the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">doctor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> say </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">我什么时候能出院。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">about me? When can I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">be discharged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dǎ rǎo le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066B3"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hù shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yī shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> duì wǒ de bìng qíng shuō le shen me ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nurse</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ shen me shí hòu néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chū yuàn </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 医生查了查您目前的情况，因为你恢复的不错，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: The doctor has examined your current </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">situation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">明天就可以出院了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Since you are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">recovering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> so well, you will be</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yī shēng chá le chá nín mù qián de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qíng kuàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">discharged tomorrow.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">yīn wéi nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">huī fù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> de bú cuò ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">míng tiān jiù kě yǐ chū yuàn le 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 太好了，谢谢了。不过我怎么办出院手续呢？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Great, thanks. But how can I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">get discharged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tài hǎo le ，xiè xiè le 。bú guò wǒ zěn me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bàn chū yuàn shǒu xù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ne ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 首先到医生办公室取一下费用账单，然后用现金</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">First</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> please get the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at the doctor’s office,</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">或者银行卡支付。尽管您出院了，您在家还是</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Then pay it either with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066B3"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5E8AC7"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">credit card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">得休息，不要急于上班，等完全恢复好了再说。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even though you’re discharged. You still need</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shǒu xiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dào yī shēng bàn gōng shì </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to take a rest at home. Don’t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hurry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> back to </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">qǔ yī xià </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">fèi yòng zhàng dān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ，rán hòu yòng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066B3"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">xiàn jīn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">work until you have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066B3"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fully</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> recovered.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">huò zhě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5E8AC7"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yín háng kǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhī fù 。jìn guǎn nín chū yuàn le ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nín zài jiā hái shì dei xiū xī ，bú yào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jí yú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shàng bān ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">děng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066B3"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">wán quán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> huī fù hǎo le zài shuō 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 好的，我会的，谢谢你的关心和照料。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo de ，wǒ huì de ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Yes, I will. Thanks for your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066B3"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">care</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xiè xiè nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066B3"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">guān xīn hé zhào liào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">大夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dai  fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">di yi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">credit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xin yong ke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">信用卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">借记卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jie ji ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">居安思危</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ju an si wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be prepared for danger in times of peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你得这么做</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you should do this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni dei zhe me zuo</t>
   </si>
 </sst>
 </file>
@@ -6685,7 +7534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6910,15 +7759,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0066B3"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5E8AC7"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE181E"/>
+      <color rgb="FF0066B3"/>
       <name val="等线"/>
       <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6963,7 +7851,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7016,7 +7904,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7044,16 +7944,16 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF407927"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF00B274"/>
+      <rgbColor rgb="FF00864B"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF62A73B"/>
+      <rgbColor rgb="FF5E8AC7"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF1B75BC"/>
+      <rgbColor rgb="FF0066B3"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -7061,7 +7961,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF1B75BC"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -7072,13 +7972,13 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF00B274"/>
       <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FFEF413D"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF62A73B"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF579835"/>
       <rgbColor rgb="FF003300"/>
@@ -7358,7 +8258,7 @@
   </sheetPr>
   <dimension ref="C2:AO36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -7454,17 +8354,17 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="4" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="13"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
@@ -7531,7 +8431,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="4" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7584,6 +8484,305 @@
       </c>
       <c r="K36" s="1" t="s">
         <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AQ38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP11" activeCellId="0" sqref="AP11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="V4" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="AA6" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="V8" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="V13" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="2"/>
+      <c r="R15" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="V16" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="AD23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="7"/>
+      <c r="AD24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AP31" s="0"/>
+      <c r="AQ31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="H34" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <sheet name="20211107" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="20211114" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="20211121" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="20211128" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="559">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -6967,6 +6968,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yīn wéi nǐ </t>
     </r>
@@ -6976,6 +6978,7 @@
         <color rgb="FF00864B"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">huī fù</t>
     </r>
@@ -6984,6 +6987,7 @@
         <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> de bú cuò ，</t>
     </r>
@@ -7229,6 +7233,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">qǔ yī xià </t>
     </r>
@@ -7238,6 +7243,7 @@
         <color rgb="FF00864B"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fèi yòng zhàng dān</t>
     </r>
@@ -7247,6 +7253,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> ，rán hòu yòng </t>
     </r>
@@ -7256,6 +7263,7 @@
         <color rgb="FF0066B3"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">xiàn jīn</t>
     </r>
@@ -7361,6 +7369,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">děng </t>
     </r>
@@ -7370,6 +7379,7 @@
         <color rgb="FF0066B3"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">wán quán</t>
     </r>
@@ -7379,6 +7389,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> huī fù hǎo le zài shuō 。</t>
     </r>
@@ -7525,6 +7536,709 @@
   </si>
   <si>
     <t xml:space="preserve">ni dei zhe me zuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask about someone’s condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  医生，我可以问问我母亲的病情吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Doctor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">， may I ask my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mother’s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> condition?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yī shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ kě yǐ wèn wèn wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mǔ qīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de bìng qíng ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 你要有心理准备，她已经是肺癌晚期了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Well. you’d better sit down for this. It has been </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ yào yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xīn lǐ zhǔn bèi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">terminal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lung cancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tā yǐ jīng shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fèi ái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǎn qī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 天呐，请您救救她。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Oh my god. Please </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">save her life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tiān nà ，qǐng nín </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jiù jiù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> tā 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我们会尽力的，不过你要做好最坏的打算。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: We’ll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">try our best</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. But you’d better </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">prepare for the worst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ men huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jìn lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de ，bú guò nǐ yào zuò hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zuì huài de dǎ suàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 我知道，医生。但是我求您帮帮她。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I see. Doctor. But I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">plead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with you to help her.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ zhī dào ，yī shēng 。dàn shì wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">qiú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nín bāng bāng tā 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我已经说过我们会尽力的，你可以相信我们。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I have said that we’ll try our best. You can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">trust</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> us.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">但是你知道她的情况。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but you know her situation.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ yǐ jīng shuō guò wǒ men huì jìn lì de ，nǐ kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xiàng xìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ men 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dàn shì nǐ zhī dào tā de qíng kuàng 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 那她最多还能活多久？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: how long do you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> her to live.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nà tā zuì duō hái néng huó duō jiǔ ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 大概半年吧。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">About</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">half a year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dà gài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bàn nián</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ba </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">博士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bo shi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">救命</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">many</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">较多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiao duo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zui duo</t>
   </si>
 </sst>
 </file>
@@ -7534,7 +8248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7773,14 +8487,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00864B"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7791,15 +8501,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0066B3"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -7851,7 +8556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7908,15 +8613,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8504,8 +9201,8 @@
   </sheetPr>
   <dimension ref="C2:AQ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP11" activeCellId="0" sqref="AP11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8582,7 +9279,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="2" t="s">
         <v>470</v>
       </c>
       <c r="T11" s="1" t="s">
@@ -8590,7 +9287,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="2" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8642,7 +9339,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>483</v>
       </c>
       <c r="W19" s="1" t="s">
@@ -8650,7 +9347,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="4" t="s">
         <v>485</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -8671,7 +9368,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="4" t="s">
         <v>489</v>
       </c>
       <c r="AD23" s="0"/>
@@ -8783,6 +9480,286 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H38" s="1" t="s">
         <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AQ37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="T4" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3"/>
+      <c r="E6" s="0"/>
+      <c r="R6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="T7" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0"/>
+      <c r="D9" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="T14" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="2"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="T17" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="T20" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="T24" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="7"/>
+      <c r="AD26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="T27" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="F32" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="F36" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="20211114" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="20211121" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="20211128" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="20211205" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="611">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -8239,6 +8240,778 @@
   </si>
   <si>
     <t xml:space="preserve">zui duo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Steven , 你好点了吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Steven, Have you got better now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Steven , nǐ hǎo diǎn le ma ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 好多了，医生说我很快就可以出院了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Yeah. The doctor said that I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> soon.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">我真的很想家。但是，我必须再待上</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I really</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> miss home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.But I have to stay for </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">一天，观察一下才行。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">another day for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">observation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo duō le ，yī shēng shuō wǒ hěn kuài jiù kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chū yuàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ zhēn de hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xiǎng jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。dàn shì ，wǒ bì xū zài dài shàng </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yī tiān ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">guān chá </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yī xià cái xing 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 有必要的话，我可以在这里陪你到出院。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. I can stay here to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">accompany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yǒu bì yào de huà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">until you’re discharged.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ kě yǐ zài zhè lǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">péi nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dào chū yuàn 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B：不了，谢谢你能来医院看我，我已经很感激了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: No thanks. i’m very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">grateful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that you can come to the</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bú le ，xiè xiè nǐ néng lái yī yuàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kàn wǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hospital to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">visit me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ yǐ jīng hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">gǎn jī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 你是我的好朋友，那是我应该做的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  You’re my best friend. That’s what I should do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nǐ shì wǒ de hǎo péng yǒu ，nà shì wǒ yīng gāi zuò de 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asking for Leave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  Black 先生。 我今天下午想请假可以吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Mr black, i’d like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">take</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this afternoon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">off</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Black xiān shēng 。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if it’s all right with it?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jīn tiān xià wǔ xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qǐng jià</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kě yǐ ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Steven，你这三周已经请了三次假了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: But steven. you’ve called in sick three times</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven，nǐ zhè sān zhōu yǐ jīng qǐng le sān cì jiǎ le 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">during the last three weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 我知道，对不起。但是我今天下午必须去看医生。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: I know, Mr black. i’m sorry but I really need to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我头晕，而且不能专心工作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to see the doctor this afternoon. I fed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dizzy</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ zhī dào ，duì bú qi 。dàn shì wǒ jīn tiān xià wǔ </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">and I can’t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">concentrate on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> my work.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bì xū qù kàn yī shēng 。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tóu yūn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，ér qiě bú néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhuān xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> gōng zuò 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 好吧，但是记得明天把医生开的证明拿来。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: All right, then. But </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">don’t forget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to bring a </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo ba ，dàn shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jì dé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> míng tiān bǎ yī shēng kāi de</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">doctor’s note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tomorrow.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhèng míng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ná lái 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 知道了，谢谢您。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Ok, thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhī dào le ，xiè xiè nín 。</t>
   </si>
 </sst>
 </file>
@@ -8248,7 +9021,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8513,6 +9286,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8556,7 +9343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8617,6 +9404,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -8631,7 +9422,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFED1C24"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -9500,7 +10291,7 @@
   </sheetPr>
   <dimension ref="C2:AQ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -9760,6 +10551,300 @@
       </c>
       <c r="J37" s="1" t="s">
         <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AQ39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS19" activeCellId="0" sqref="AS19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="U4" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3"/>
+      <c r="E6" s="0"/>
+      <c r="AA6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="U7" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0"/>
+      <c r="D9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0"/>
+      <c r="D10" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="U13" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="U16" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="U19" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="4"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="7"/>
+      <c r="AD22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="V24" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AD25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="AD26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="V27" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="V30" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AP34" s="0"/>
+      <c r="AQ34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="20211114" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="20211121" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="20211128" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="20211205" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="611">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -8239,6 +8240,538 @@
   </si>
   <si>
     <t xml:space="preserve">zui duo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Steven , 你好点了吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Steven, Have you got better now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Steven , nǐ hǎo diǎn le ma ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 好多了，医生说我很快就可以出院了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Yeah. The doctor said that I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> soon.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">我真的很想家。但是，我必须再待上</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I really</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> miss home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.But I have to stay for </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">一天，观察一下才行。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">another day for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">observation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo duō le ，yī shēng shuō wǒ hěn kuài jiù kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chū yuàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ zhēn de hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xiǎng jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。dàn shì ，wǒ bì xū zài dài shàng </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yī tiān ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">guān chá </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yī xià cái háng 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 有必要的话，我可以在这里陪你到出院。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. I can stay here to accompany you </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A933"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yǒu bì yào de huà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">until you’re discharged.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ kě yǐ zài zhè lǐ péi nǐ dào chū yuàn 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B：不了，谢谢你能来医院看我，我已经很感激了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: No thanks. i’m very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">grateful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that you can come to the</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bú le ，xiè xiè nǐ néng lái yī yuàn kàn wǒ ，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hospital to visit me.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ yǐ jīng hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">gǎn jī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 你是我的好朋友，那是我应该做的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  You’re my best friend. That’s what I should do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nǐ shì wǒ de hǎo péng yǒu ，nà shì wǒ yīng gāi zuò de 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asking for Leave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  Black 先生。 我今天下午想请假可以吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Mr black, i’d like to take this afternoon off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black xiān shēng 。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if it’s all right with it?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jīn tiān xià wǔ xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qǐng jià</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kě yǐ ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Steven，你这三周已经请了三次假了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: But steven. you’ve called in sick three times</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven，nǐ zhè sān zhōu yǐ jīng qǐng le sān cì jiǎ le 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">during the last three weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 我知道，对不去。但是我今天下午必须去看医生。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: I know, Mr black. i’m sorry but I really need to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我头晕，而且不能专心工作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to see the doctor this afternoon. I fed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dizzy</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ zhī dào ，duì bú qù 。dàn shì wǒ jīn tiān xià wǔ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and I can’t concentrate on my work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bì xū qù kàn yī shēng 。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tóu yūn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，ér qiě bú néng zhuān xīn gōng zuò 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 好吧，但是记得明天把医生开的证明拿来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: All right, then. But don’t forget to bring a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo ba ，dàn shì jì dé míng tiān bǎ yī shēng kāi de</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">doctor’s note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tomorrow.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhèng míng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ná lái 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 知道了，谢谢您。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Ok, thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhī dào le ，xiè xiè nín 。</t>
   </si>
 </sst>
 </file>
@@ -8248,7 +8781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8260,16 +8793,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8513,6 +9049,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8556,7 +9106,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8617,21 +9167,25 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFED1C24"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -9500,7 +10054,7 @@
   </sheetPr>
   <dimension ref="C2:AQ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -9760,6 +10314,300 @@
       </c>
       <c r="J37" s="1" t="s">
         <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AQ39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U40" activeCellId="0" sqref="U40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="U4" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3"/>
+      <c r="E6" s="0"/>
+      <c r="AA6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="U7" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0"/>
+      <c r="D9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0"/>
+      <c r="D10" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="U13" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="U16" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="U19" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="4"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="7"/>
+      <c r="AD22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="V24" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AD25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="AD26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="V27" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="V30" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AP34" s="0"/>
+      <c r="AQ34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="20211121" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="20211128" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="20211205" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="20211212" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="685">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -9012,6 +9013,808 @@
   </si>
   <si>
     <t xml:space="preserve">zhī dào le ，xiè xiè nín 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 您好，Summers夫人。我是李太太。jone 现在还没有回家，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Hello, mrs summers. This is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Mrs Lee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. Jone</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">我有点担心。请问他是什么时间离开学校的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasn’t come home yet. And i’m getting</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nín hǎo ，Summers fū rén 。wǒ shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lǐ tài tài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a little concerned. What time did he </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> school?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">jone xiàn zài hái méi yǒu huí jiā ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ yǒu diǎn dān xīn 。qǐng wèn tā shì shen me shí jiān </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lí kāi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xué xiào de 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 大约一个小时以前。不过我觉得不用太担心，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:  About an hour ago. But I wouldn’t worry too much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你知道他是男孩子嘛。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you know how boys are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dà yuē yī gè xiǎo shí yǐ qián 。bú guò wǒ jue dé bú yòng tài dān xīn ， </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ zhī dào tā shì nán hái zǐ ma 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 是的，我明白。但是他通常只要步行30分钟就能到家了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  Yeah, I know. But it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">usually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> only takes him thirty minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shì de ，wǒ míng bái 。dàn shì tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tōng cháng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zhī yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bù xing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">walk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> home.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">30fèn zhōng jiù néng dào jiā le 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bu xing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 他可能中途去朋友家了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">步行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Maybe he stopped off at a friend’s house.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tā kě néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhōng tú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> qù péng yǒu jiā le 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 嗯，可能是这样。哦，等一下，我好像听到门开了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Yeah. Maybe you’re right… Oh, wait, I think I hear the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">èn ，kě néng shì zhè yàng 。ò ，děng yī xià ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">door</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> opening now.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">wǒ hǎo xiàng tīng dào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> kāi le </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">窗户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chuang hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水开了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The water is boiling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shui kai le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 我不能相信你偷东西被抓了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I can’t believe you got </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">caught</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">stealing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">你在想什么？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What were you thinking?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ bú néng xiàng xìn nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tōu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dōng xī bèi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhuā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ zài xiǎng shen me ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 对不起，爸爸。我保证我再也不做了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: i’m sorry, dad. I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i’ll never do it again.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">duì bú qǐ ，bà bà 。wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bǎo zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ zài yě bú zuò le 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 你真让我失望。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: you’ve really </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">disappointed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> me .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ zhēn ràng wǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> shī wàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 求你了爸爸，别告诉妈妈这件事。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:  Please dad. Don’t  tell mom about this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qiú nǐ le bà bà ，bié gào sù mā mā zhè jiàn shì 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiu ming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 你知道的，我必须告诉她。你也将被</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  you know. I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> have to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tell her and you’re also </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">禁足两周。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">going to be grounded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for two weeks.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ zhī dào de ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bì xū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> gào sù tā 。nǐ yě jiāng bèi </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jìn zú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> liǎng zhōu 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nv shi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小姐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiao jie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mei nv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful girl</t>
   </si>
 </sst>
 </file>
@@ -9021,7 +9824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9300,6 +10103,31 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9343,7 +10171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9405,6 +10233,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10571,7 +11411,7 @@
   </sheetPr>
   <dimension ref="C2:AQ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AS19" activeCellId="0" sqref="AS19"/>
     </sheetView>
   </sheetViews>
@@ -10845,6 +11685,623 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
         <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:AC46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P41" activeCellId="0" sqref="P41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="AA4" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="AA9" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0"/>
+      <c r="D10" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0"/>
+      <c r="D11" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="AA13" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7"/>
+      <c r="H18" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="AA19" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB20" s="18" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="17" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="17"/>
+      <c r="R22" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="4"/>
+      <c r="R23" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="AC23" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="AA24" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0"/>
+      <c r="D25" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="AB25" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0"/>
+      <c r="D26" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0"/>
+      <c r="D27" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="AA28" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0"/>
+      <c r="D29" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="Z30" s="3"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="AA31" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0"/>
+      <c r="D32" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="AA34" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0"/>
+      <c r="D35" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0"/>
+      <c r="D36" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="AA37" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0"/>
+      <c r="D38" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="AB38" s="18" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2021.xlsx
+++ b/learn_chinese2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="20210808" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="20211128" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="20211205" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="20211212" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="20211219" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="737">
   <si>
     <t xml:space="preserve">Chinese Lessons：</t>
   </si>
@@ -9383,6 +9384,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">wǒ hǎo xiàng tīng dào </t>
     </r>
@@ -9392,6 +9394,7 @@
         <color rgb="FFED1C24"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mén</t>
     </r>
@@ -9401,6 +9404,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> kāi le </t>
     </r>
@@ -9815,6 +9819,605 @@
   </si>
   <si>
     <t xml:space="preserve">beautiful girl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Quarrel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">and Fight</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">争吵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhēng chǎo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 听着，Jim。我已经告诉你很多次了.  把音乐关小点。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: listen, jim. i’ve told you time and time again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tīng zhe ，Jim 。wǒ yǐ jīng gào sù nǐ hěn duō cì le . </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to keep the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">music</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> bǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">yīn yuè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">guān xiǎo diǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">一次又一次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yi ci you yi ci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time and time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开大点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kai  da dian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kai da dian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 你知道。我厌倦了你告诉我该怎么做。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: you know. i’m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of you trying to tell me what to do.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">不管怎样，只要我愿意，我随时都会听我的音乐</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i’ll listen to my music </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">anyway and anytime I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">want</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ zhī dào 。wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yàn juàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le nǐ gào sù wǒ gāi zěn me zuò 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bú guǎn zěn yàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，zhī yào wǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFF450"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yuàn yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">suí shí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dōu huì tīng wǒ de yīn yuè</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 如果你不把音乐关小一点，我会帮你关小一点。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: If you don’t turn the music down, i’ll turn it down for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rú guǒ nǐ bú bǎ yīn yuè guān xiǎo yī diǎn ，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ huì bāng nǐ guān xiǎo yī diǎn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 你现在在威胁我吗？去吧，走吧。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Are you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">threatening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> me now? Go ahead make your move.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ xiàn zài zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wēi xié</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ ma ？qù ba ，zǒu ba 。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A:哦，你想和我打架吗？是这样吗？你想打我。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Oh, you want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> me? Is that it? You want to fight me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ò ，nǐ xiǎng hé wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dǎ jià </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shì zhè yàng ma ？nǐ xiǎng dǎ wǒ 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 我会让你希望你从来没有出生过</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: i’ll make you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you had never been born.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ huì ràng nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xī wàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ cóng lái méi yǒu chū shēng guò</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">三星 Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three  star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">san xing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不管怎样  anyway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bú guǎn zěn yàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">服了你</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fú le nǐ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I admire you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你在教我做事？  nǐ zài jiāo wǒ zuò shì ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're teaching me to do things?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你愁啥？ 我瞅你，瞅你咋地？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ chóu shá ？wǒ chǒu nǐ ，chǒu nǐ zǎ dì ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are you looking at?
+I look at you. What do you think?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我会打的你妈都不认识你</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ huì dǎ de nǐ mā dōu bú rèn shí nǐ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll hit you. Your mother doesn't even know you</t>
   </si>
 </sst>
 </file>
@@ -9824,7 +10427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10104,17 +10707,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006C3B"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10124,9 +10728,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFF450"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -10171,7 +10822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10236,7 +10887,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10244,8 +10895,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -10289,17 +10956,17 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF1B75BC"/>
+      <rgbColor rgb="FF009353"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFF450"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF1B75BC"/>
       <rgbColor rgb="FF00B274"/>
       <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -11705,8 +12372,8 @@
   </sheetPr>
   <dimension ref="B2:AC46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P41" activeCellId="0" sqref="P41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T31" activeCellId="0" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11755,7 +12422,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="0" t="s">
         <v>618</v>
       </c>
@@ -11808,7 +12475,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="4" t="s">
         <v>629</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -11870,17 +12537,17 @@
       <c r="D20" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AB20" s="18" t="s">
+      <c r="AB20" s="16" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="4" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="17"/>
+      <c r="D22" s="4"/>
       <c r="R22" s="1" t="s">
         <v>647</v>
       </c>
@@ -12250,7 +12917,7 @@
       <c r="Q38" s="0"/>
       <c r="R38" s="0"/>
       <c r="S38" s="0"/>
-      <c r="AB38" s="18" t="s">
+      <c r="AB38" s="16" t="s">
         <v>672</v>
       </c>
     </row>
@@ -12260,7 +12927,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="16" t="s">
         <v>674</v>
       </c>
     </row>
@@ -12302,6 +12969,541 @@
       </c>
       <c r="J46" s="1" t="s">
         <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:AB39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="2.64"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="U4" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="Q6" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="C8" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="U8" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="18" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="20" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="U13" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="U20" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="U23" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0"/>
+      <c r="D24" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="Z30" s="3"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C36" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="AB38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="1" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
